--- a/biology/Médecine/Jules_Devaux_(1811-1880)/Jules_Devaux_(1811-1880).xlsx
+++ b/biology/Médecine/Jules_Devaux_(1811-1880)/Jules_Devaux_(1811-1880).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Devaux, né le 18 juillet 1811 à Colombières et mort à Paris le 27 octobre 1880, est l'un des sept fondateurs de la Société de Saint-Vincent-de-Paul.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un médecin de campagne normand, Jules Devaux fait d'abord ses études à Caen. À 20 ans, il part à Paris pour poursuivre ses études de médecine à la Sorbonne. Il y rencontre pour la première fois Frédéric Ozanam.
-En 1833, il est l'un des sept fondateurs de la Conférence de Saint-Vincent-de-Paul. Il est choisi pour en être le premier trésorier, et sera aussi le premier trésorier de la Société de Saint-Vincent-de-Paul[1].
-C'est lui qui met en contact le groupe avec sœur Rosalie, qui approuve tout de suite leurs intentions et leur montre comment agir concrètement auprès des plus démunis[2].
-Ayant terminé ses études de médecine, Jules Devaux quitte Paris en 1839 pour s'installer en Normandie[3]. Il exerce à Honfleur[4], puis arrête de pratiquer la médecine à la mort de sa mère[3]. 
-Il voyage alors en Europe, surtout en Allemagne où il essaye sans succès d'installer une Conférence de la charité[3]. Il se lie à Munich avec l'abbé Maret[4]. Il épouse Adélaïde Picard en 1849[5].
+En 1833, il est l'un des sept fondateurs de la Conférence de Saint-Vincent-de-Paul. Il est choisi pour en être le premier trésorier, et sera aussi le premier trésorier de la Société de Saint-Vincent-de-Paul.
+C'est lui qui met en contact le groupe avec sœur Rosalie, qui approuve tout de suite leurs intentions et leur montre comment agir concrètement auprès des plus démunis.
+Ayant terminé ses études de médecine, Jules Devaux quitte Paris en 1839 pour s'installer en Normandie. Il exerce à Honfleur, puis arrête de pratiquer la médecine à la mort de sa mère. 
+Il voyage alors en Europe, surtout en Allemagne où il essaye sans succès d'installer une Conférence de la charité. Il se lie à Munich avec l'abbé Maret. Il épouse Adélaïde Picard en 1849.
 Il est inhumé dans le cimetière de Colombières.
 </t>
         </is>
